--- a/PastaDocsProjeto/Orcamento.xlsx
+++ b/PastaDocsProjeto/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Documents\TESTE-USO-GIT\3SIS-ProjetoExemploGIT\PastaDocsProjeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCD46CD-7B82-4DC8-B855-9D05F5111AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E2CD5F-D3F6-4F0B-BC0F-A9B772F24723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Orçamento do projeto</t>
   </si>
@@ -38,14 +38,47 @@
   <si>
     <t>valor mensal previsto</t>
   </si>
+  <si>
+    <t>bonus</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -72,8 +105,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -354,33 +391,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="C4">
+        <v>5000</v>
+      </c>
+      <c r="G4">
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>